--- a/SD030/Do/MailList.xlsx
+++ b/SD030/Do/MailList.xlsx
@@ -14,13 +14,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Receiver</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>song.fuwei@giti.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>darkhome@126.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>song_fuwei@126.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,33 +393,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.6328125" customWidth="1"/>
+    <col min="2" max="2" width="27.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>